--- a/patient_data/patient_40.xlsx
+++ b/patient_data/patient_40.xlsx
@@ -880,16 +880,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -957,16 +957,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1155,13 +1155,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1188,16 +1188,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1653,13 +1653,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1730,13 +1730,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1993,13 +1993,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2070,13 +2070,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2147,13 +2147,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2224,13 +2224,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
